--- a/web/assignment.xlsx
+++ b/web/assignment.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2023\pythonfullstack\workshop\pythonfullstack_NH_July-2023\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62317E6-5B16-4EAF-B17A-E03D0EE3C990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9FC893-C512-4588-AF1B-D442AD8FAC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9C3419D7-46DD-4E4E-B824-E240D2289411}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9C3419D7-46DD-4E4E-B824-E240D2289411}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="employee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Counter</t>
   </si>
@@ -76,6 +77,42 @@
   </si>
   <si>
     <t>keypress</t>
+  </si>
+  <si>
+    <t>Employee Master</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>&lt;Add Employee&gt;</t>
+  </si>
+  <si>
+    <t>&lt;List Employee&gt;</t>
+  </si>
+  <si>
+    <t>Employee List</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Gagan</t>
+  </si>
+  <si>
+    <t>Accounts</t>
   </si>
 </sst>
 </file>
@@ -111,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,14 +156,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083087CC-E9FE-45D3-8C53-9017A192AA05}">
   <dimension ref="B4:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -513,4 +567,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F5E6F6-0994-4569-98EF-B9122718A98F}">
+  <dimension ref="C2:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3">
+        <v>83933</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>488448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>